--- a/data/trans_dic/P15_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19</t>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,9%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 12,22</t>
+          <t>0,0; 8,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 44,65</t>
+          <t>9,95; 64,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 39,03</t>
+          <t>11,14; 44,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 9,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,96</t>
+          <t>4,92; 24,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,83; 28,56</t>
+          <t>11,51; 32,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,48</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,16</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 26,78</t>
+          <t>9,46; 42,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 30,35</t>
+          <t>14,37; 33,73</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>33,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 23,73</t>
+          <t>15,5; 28,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 15,2</t>
+          <t>6,71; 17,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,05; 35,55</t>
+          <t>21,4; 37,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,47; 43,04</t>
+          <t>30,95; 49,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,79</t>
+          <t>10,09; 20,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,25</t>
+          <t>3,76; 11,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 34,88</t>
+          <t>23,14; 36,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,35; 33,97</t>
+          <t>21,66; 35,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,63</t>
+          <t>13,89; 22,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,34</t>
+          <t>6,36; 12,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,71; 33,51</t>
+          <t>23,93; 33,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,63; 36,53</t>
+          <t>28,84; 39,6</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>46,91%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 25,17</t>
+          <t>12,8; 26,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 21,01</t>
+          <t>6,46; 17,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,53; 49,57</t>
+          <t>29,97; 47,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,08; 55,66</t>
+          <t>38,86; 57,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,84; 24,73</t>
+          <t>13,29; 25,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 14,36</t>
+          <t>6,25; 15,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,03; 48,15</t>
+          <t>36,41; 52,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,34; 55,92</t>
+          <t>38,5; 54,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,97; 23,28</t>
+          <t>15,43; 24,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,99</t>
+          <t>7,17; 14,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,24; 46,68</t>
+          <t>36,11; 47,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,83; 53,41</t>
+          <t>40,95; 53,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 13,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 37,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 44,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 33,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 37,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 16,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 9,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,01; 34,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,42; 38,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,76%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 23,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 13,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26,65; 41,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33,78; 46,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 18,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 10,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28,56; 37,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29,3; 39,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,54; 18,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 10,61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 36,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33,34; 41,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32456</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31393</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13110</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25135</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>45566</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56527</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9157</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10494; 68002</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12712; 50389</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13007</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5687; 27927</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14088; 39554</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10049</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13076</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20912; 93850</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33978; 79785</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>78708</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48552</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>106925</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>157637</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57459</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31771</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>111935</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>105635</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>136167</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>80324</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>218860</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>263272</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>56726; 105185</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>28810; 73366</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80514; 141103</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>123631; 196472</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39402; 80248</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17465; 53115</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>88141; 140878</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>81278; 131773</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>105111; 170056</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56891; 113332</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>181196; 252482</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>223448; 306790</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56335</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37418</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>109971</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>131529</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>67876</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43005</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>151395</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>151256</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>124211</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>80424</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>261366</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>282785</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36594; 77183</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21501; 56898</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84637; 135269</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>107015; 157661</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47802; 92602</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26786; 65495</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>125489; 179496</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>126050; 178987</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99607; 159315</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54597; 107464</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>226423; 296634</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>246845; 319725</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>136898</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>85971</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>249352</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>320558</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>125335</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>76881</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>276441</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>282026</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>262234</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>162852</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>525792</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>602584</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>107036; 173910</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>59880; 121399</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>203652; 319529</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>266565; 368804</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99904; 158696</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>53227; 106109</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>240234; 314406</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>241728; 322150</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>219764; 307248</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>125742; 204339</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>464629; 589278</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>538049; 663476</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>